--- a/table/count_rda_anova.xlsx
+++ b/table/count_rda_anova.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,10 +385,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02597252648803217</v>
+        <v>0.03761643656215948</v>
       </c>
       <c r="C2">
-        <v>5.149687249775094</v>
+        <v>5.545727369510831</v>
       </c>
       <c r="D2">
         <v>0.0001</v>
@@ -399,13 +399,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02168812738859453</v>
+        <v>0.02371884648491535</v>
       </c>
       <c r="C3">
-        <v>4.300200565239864</v>
+        <v>3.496829262582057</v>
       </c>
       <c r="D3">
-        <v>0.0003</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="4">
@@ -413,13 +413,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.01020975409621606</v>
+        <v>0.014138129871315</v>
       </c>
       <c r="C4">
-        <v>2.024332924132343</v>
+        <v>2.084360480331184</v>
       </c>
       <c r="D4">
-        <v>0.0785</v>
+        <v>0.2022</v>
       </c>
     </row>
     <row r="5">
@@ -427,21 +427,49 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.003337087808087059</v>
+        <v>0.01066193300875952</v>
       </c>
       <c r="C5">
-        <v>0.6616591013817802</v>
+        <v>1.571870679479754</v>
       </c>
       <c r="D5">
-        <v>0.8133</v>
+        <v>0.4275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.1412184286913077</v>
+        <v>0.006405204127845558</v>
+      </c>
+      <c r="C6">
+        <v>0.9443083685079833</v>
+      </c>
+      <c r="D6">
+        <v>0.8414</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.003580781701675052</v>
+      </c>
+      <c r="C7">
+        <v>0.5279085660973862</v>
+      </c>
+      <c r="D7">
+        <v>0.9365</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0.1763569114473823</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02106741304857226</v>
+        <v>0.01046629395705767</v>
       </c>
       <c r="C2">
-        <v>4.177128798462068</v>
+        <v>1.543027946283182</v>
       </c>
       <c r="D2">
-        <v>0.0001</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="3">
@@ -498,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01078445425217334</v>
+        <v>0.01513031766321535</v>
       </c>
       <c r="C3">
-        <v>2.138281255918265</v>
+        <v>2.230637041752514</v>
       </c>
       <c r="D3">
-        <v>0.0168</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +540,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.01887680031882905</v>
+        <v>0.01227075764182423</v>
       </c>
       <c r="C4">
-        <v>3.742786361704835</v>
+        <v>1.809056963342308</v>
       </c>
       <c r="D4">
-        <v>0.0002</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="5">
@@ -526,21 +554,49 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.01634991498529206</v>
+        <v>0.01755268398726201</v>
       </c>
       <c r="C5">
-        <v>3.241769674331153</v>
+        <v>2.58776239571974</v>
       </c>
       <c r="D5">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.1412184286913077</v>
+        <v>0.01428913475045046</v>
+      </c>
+      <c r="C6">
+        <v>2.106622873255282</v>
+      </c>
+      <c r="D6">
+        <v>0.0103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.01166455289846718</v>
+      </c>
+      <c r="C7">
+        <v>1.719685227367075</v>
+      </c>
+      <c r="D7">
+        <v>0.0467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0.1763569114473824</v>
       </c>
     </row>
   </sheetData>

--- a/table/count_rda_anova.xlsx
+++ b/table/count_rda_anova.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,114 +361,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(count_rda_axis)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RDA1</t>
+        </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.03761643656215948</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.545727369510831</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RDA2</t>
+        </is>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.02371884648491535</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.496829262582057</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0051</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RDA3</t>
+        </is>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.014138129871315</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.084360480331184</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2022</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RDA4</t>
+        </is>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.01066193300875952</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.571870679479754</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4275</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RDA5</t>
+        </is>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.006405204127845558</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.9443083685079833</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.8414</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RDA6</t>
+        </is>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.003580781701675052</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5279085660973862</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9365</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.1763569114473823</v>
       </c>
     </row>
@@ -479,7 +519,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,114 +528,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(count_rda_margin)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.01046629395705767</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.543027946283182</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0858</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D50</t>
+        </is>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.01513031766321535</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.230637041752514</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0065</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TOC</t>
+        </is>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.01227075764182423</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.809056963342308</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.0344</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.01755268398726201</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.58776239571974</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.002</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.01428913475045046</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.106622873255282</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.0103</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Porosity</t>
+        </is>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.01166455289846718</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.719685227367075</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.0467</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.1763569114473824</v>
       </c>
     </row>
